--- a/BT_excel.xlsx
+++ b/BT_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhongnguyen\Desktop\New folder\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C59831-DFB2-4CB4-8CF4-9B6CF1E5D4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAF95F5-F474-4753-88C3-E259BAC6AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{03733E59-DD11-4B7D-B56B-AB0297CD995B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{03733E59-DD11-4B7D-B56B-AB0297CD995B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,32 +18,26 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$6:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet7!$A$5:$I$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="271">
   <si>
     <t>Cty TNHH Đại Thái Bình Dương</t>
   </si>
@@ -450,16 +444,459 @@
   </si>
   <si>
     <t>Số lượng đã bán</t>
+  </si>
+  <si>
+    <t>BÁO CÁO THUẾ THÁNG 1</t>
+  </si>
+  <si>
+    <t>Số ĐKKD</t>
+  </si>
+  <si>
+    <t>Tên chợ</t>
+  </si>
+  <si>
+    <t>Mã hàng</t>
+  </si>
+  <si>
+    <t>Tên mặt hàng</t>
+  </si>
+  <si>
+    <t>Vốn KD</t>
+  </si>
+  <si>
+    <t>Tiền thuế</t>
+  </si>
+  <si>
+    <t>Ngày đóng thực tế</t>
+  </si>
+  <si>
+    <t>Tiền phạt</t>
+  </si>
+  <si>
+    <t>Tiền phải nộp</t>
+  </si>
+  <si>
+    <t>001/DK</t>
+  </si>
+  <si>
+    <t>001/BT</t>
+  </si>
+  <si>
+    <t>002/BC</t>
+  </si>
+  <si>
+    <t>VKT</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn 
+đóng thuế</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Bảng 1</t>
+  </si>
+  <si>
+    <t>Bảng 2</t>
+  </si>
+  <si>
+    <t>Mã
+hàng</t>
+  </si>
+  <si>
+    <t>Tên hàng</t>
+  </si>
+  <si>
+    <t>Thuế %</t>
+  </si>
+  <si>
+    <t>Vải Kate</t>
+  </si>
+  <si>
+    <t>Quần áo</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>BÀI THỰC HÀNH EXCEL SỐ 12</t>
+  </si>
+  <si>
+    <t>1) Nhập và định dạng dữ liệu như bảng tính sau:</t>
+  </si>
+  <si>
+    <t>BẢNG KÊ CHI TIẾT ĐẠI LÝ BƯU ĐIỆN TRONG NGÀY</t>
+  </si>
+  <si>
+    <t>NGÀY</t>
+  </si>
+  <si>
+    <t>BẮT ĐẦU</t>
+  </si>
+  <si>
+    <t>KẾT THÚC</t>
+  </si>
+  <si>
+    <t>SỐ GIỜ</t>
+  </si>
+  <si>
+    <t>SỐ PHÚT</t>
+  </si>
+  <si>
+    <t>TỈNH</t>
+  </si>
+  <si>
+    <t>TIỀN</t>
+  </si>
+  <si>
+    <t>BDG</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>Tỉnh</t>
+  </si>
+  <si>
+    <t>Số cuộc gọi từng tỉnh:</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>HNI</t>
+  </si>
+  <si>
+    <t>Yêu cầu tính toán:</t>
+  </si>
+  <si>
+    <t>1) SỐ GiỜ = KẾT THÚC - BẮT ĐẦU.</t>
+  </si>
+  <si>
+    <t>2) SỐ PHÚT = GIỜ * 60 + PHÚT + GIÂY/60, với GIỜ, PHÚT, GIÂY là các giá trị giờ, phút, giây
+    ở ô SỐ GIỜ tương ứng. Định dạng với 2 số lẻ.</t>
+  </si>
+  <si>
+    <t>3) ĐƠN GIÁ: Căn cứ vào TỈNH, tra cứu trong bảng ĐƠN GIÁ.</t>
+  </si>
+  <si>
+    <t>4) TIỀN = SỐ PHÚT * ĐƠN GIÁ.</t>
+  </si>
+  <si>
+    <t>5) Thống kê số cuộc gọi như BẢNG THỐNG KÊ trên.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6) Trang trí cho bảng tính và lưu lại với tên </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bai12.xls</t>
+    </r>
+  </si>
+  <si>
+    <t>QUẢN LÝ KHO HÀNG</t>
+  </si>
+  <si>
+    <t>Link video:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tNNyUow2mhg</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Chứng từ</t>
+  </si>
+  <si>
+    <t>Tên Vật
+Tư</t>
+  </si>
+  <si>
+    <t>Hình thức</t>
+  </si>
+  <si>
+    <t>Nguồn gốc</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Thành
+tiền</t>
+  </si>
+  <si>
+    <t>Giảm giá</t>
+  </si>
+  <si>
+    <t>CPDABX</t>
+  </si>
+  <si>
+    <t>MGINBX</t>
+  </si>
+  <si>
+    <t>TIVPTN</t>
+  </si>
+  <si>
+    <t>MGIHNN</t>
+  </si>
+  <si>
+    <t>CPDTTX</t>
+  </si>
+  <si>
+    <t>SCSNBX</t>
+  </si>
+  <si>
+    <t>DANH MỤC KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Công Ty TLD</t>
+  </si>
+  <si>
+    <t>Công Ty PTE</t>
+  </si>
+  <si>
+    <t>HTX Hạnh Nguyên</t>
+  </si>
+  <si>
+    <t>Công Ty SO &amp; TI</t>
+  </si>
+  <si>
+    <t>DANH MỤC KHO HÀNG</t>
+  </si>
+  <si>
+    <t>DANH MỤC VẬT TƯ</t>
+  </si>
+  <si>
+    <t>MAKHO</t>
+  </si>
+  <si>
+    <t>Tên Kho</t>
+  </si>
+  <si>
+    <t>MAVT</t>
+  </si>
+  <si>
+    <t>Tên Vật Tư</t>
+  </si>
+  <si>
+    <t>Giá Nhập</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Sách giáo khoa</t>
+  </si>
+  <si>
+    <t>CPD</t>
+  </si>
+  <si>
+    <t>Compact Disk</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Hồ sơ các loại</t>
+  </si>
+  <si>
+    <t>TIV</t>
+  </si>
+  <si>
+    <t>Tivi Samsung</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Sách kỹ thuật</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>Sáo cửa sổ</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Sách hướng dẫn</t>
+  </si>
+  <si>
+    <t>MGI</t>
+  </si>
+  <si>
+    <t>Máy giặt Sanyo</t>
+  </si>
+  <si>
+    <t>Xuất</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>BẢNG THEO DÕI THI CÔNG THÁNG 05/2014</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AWd87Sou0NM</t>
+  </si>
+  <si>
+    <t>Ngày thi
+công</t>
+  </si>
+  <si>
+    <t>Mã nhân
+viên</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Hệ số
+công việc</t>
+  </si>
+  <si>
+    <t>Mã thi công</t>
+  </si>
+  <si>
+    <t>Tên sản
+phẩm</t>
+  </si>
+  <si>
+    <t>Số lượng
+thi công</t>
+  </si>
+  <si>
+    <t>Tiền
+thưởng</t>
+  </si>
+  <si>
+    <t>NV02</t>
+  </si>
+  <si>
+    <t>VT-150</t>
+  </si>
+  <si>
+    <t>NV03</t>
+  </si>
+  <si>
+    <t>DH-75</t>
+  </si>
+  <si>
+    <t>VT-120</t>
+  </si>
+  <si>
+    <t>NV01</t>
+  </si>
+  <si>
+    <t>VC-104</t>
+  </si>
+  <si>
+    <t>DH-50</t>
+  </si>
+  <si>
+    <t>VT-200</t>
+  </si>
+  <si>
+    <t>THÔNG TIN NHÂN VIÊN</t>
+  </si>
+  <si>
+    <t>THÔNG TIN SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>Mã SP</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Yến</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Vòng tay</t>
+  </si>
+  <si>
+    <t>Trần An</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Vòng cổ</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>Đồng hồ</t>
+  </si>
+  <si>
+    <t>THỐNG KÊ</t>
+  </si>
+  <si>
+    <t>Tổng số
+lượng thi
+công</t>
+  </si>
+  <si>
+    <t>Tổng
+thành
+tiền</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="dd/mm"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,8 +933,74 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,8 +1043,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -645,11 +1166,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -662,16 +1400,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,9 +1428,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -706,19 +1437,81 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,83 +1521,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -820,16 +1554,206 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CC00"/>
       <color rgb="FF21C5FF"/>
-      <color rgb="FF00CC00"/>
       <color rgb="FF0000CC"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
@@ -843,6 +1767,926 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Giá Nhập</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$D$19:$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CPD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TIV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MGI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$F$19:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B908-4F7C-989E-FB10CF011439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1277123471"/>
+        <c:axId val="1277125135"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1277123471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277125135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1277125135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277123471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266F2E76-BC8D-21E2-865C-695A49CEE613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>175390</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>492866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A80FC4A-C2B6-7E6E-3067-DA5C31F689E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6393180" y="685800"/>
+          <a:ext cx="7193410" cy="3815186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1145,499 +2989,499 @@
   <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3"/>
+    <col min="7" max="7" width="9.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="19">
         <f ca="1">MONTH(TODAY())</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>1000</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>24</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <f>IF(D5="GĐ",500,IF(D5="TP",300,IF(D5="PGĐ",400,IF(D5="KT",250,100))))</f>
         <v>100</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <f xml:space="preserve"> F5*E5</f>
         <v>24000</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="17">
         <f>ROUND(IF((G5+H5)*2/3&lt;25000,(G5+H5)*2/3,25000),-3)</f>
         <v>16000</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <f>G5+H5-I5</f>
         <v>8100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>1000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>30</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <f t="shared" ref="G6:G13" si="0">IF(D6="GĐ",500,IF(D6="TP",300,IF(D6="PGĐ",400,IF(D6="KT",250,100))))</f>
         <v>100</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <f t="shared" ref="H6:H13" si="1" xml:space="preserve"> F6*E6</f>
         <v>30000</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <f t="shared" ref="I6:I13" si="2">ROUND(IF((G6+H6)*2/3&lt;25000,(G6+H6)*2/3,25000),-3)</f>
         <v>20000</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="17">
         <f t="shared" ref="J6:J13" si="3">G6+H6-I6</f>
         <v>10100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>3000</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>25</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <f t="shared" si="1"/>
         <v>75000</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="17">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <f t="shared" si="3"/>
         <v>50300</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>5000</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>28</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <f t="shared" si="1"/>
         <v>140000</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="17">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="17">
         <f t="shared" si="3"/>
         <v>115500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>4000</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>26</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <f t="shared" si="1"/>
         <v>104000</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="17">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="17">
         <f t="shared" si="3"/>
         <v>79400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>2000</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>29</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <f t="shared" si="1"/>
         <v>58000</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="17">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="17">
         <f t="shared" si="3"/>
         <v>33300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>1000</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>30</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="17">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="17">
         <f t="shared" si="3"/>
         <v>10250</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>3000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>30</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="17">
         <f t="shared" si="3"/>
         <v>65300</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>1000</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>26</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <f t="shared" si="1"/>
         <v>26000</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <f t="shared" si="2"/>
         <v>17000</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="17">
         <f t="shared" si="3"/>
         <v>9100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="18" t="s">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="21">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="18">
         <f>SUM(G5:G13)</f>
         <v>2350</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="18">
         <f t="shared" ref="H14:J14" si="4">SUM(H5:H13)</f>
         <v>577000</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="18">
         <f t="shared" si="4"/>
         <v>198000</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="18">
         <f t="shared" si="4"/>
         <v>381350</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="21">
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="18">
         <f>AVERAGE(G5:G13)</f>
         <v>261.11111111111109</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="18">
         <f t="shared" ref="H15:J15" si="5">AVERAGE(H5:H13)</f>
         <v>64111.111111111109</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="18">
         <f t="shared" si="5"/>
         <v>22000</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="18">
         <f t="shared" si="5"/>
         <v>42372.222222222219</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="21">
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="18">
         <f>MAX(G5:G13)</f>
         <v>500</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="18">
         <f t="shared" ref="H16:J16" si="6">MAX(H5:H13)</f>
         <v>140000</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="18">
         <f t="shared" si="6"/>
         <v>25000</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="18">
         <f t="shared" si="6"/>
         <v>115500</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="21">
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="18">
         <f>MIN(G5:G13)</f>
         <v>100</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="18">
         <f t="shared" ref="H17:J17" si="7">MIN(H5:H13)</f>
         <v>24000</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="18">
         <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="18">
         <f t="shared" si="7"/>
         <v>8100</v>
       </c>
@@ -1660,258 +3504,243 @@
   <dimension ref="A3:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="10.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="2" max="2" width="19.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="5"/>
+    <col min="4" max="4" width="10.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="16" t="str">
         <f>VLOOKUP(A5,$A$12:$C$15,2,0)</f>
         <v>Xà bông LifeBoy</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>19</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <f>VLOOKUP(A5,$A$12:$C$15,3,0)</f>
         <v>4200</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <f>LOOKUP(C5,{0,5,10,15,19},{0,1,2,3,5})</f>
         <v>5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <f>IF(AND(C5&gt;=1,C5&lt;=4),0,IF(AND(C5&gt;=5,C5&lt;=9),1,IF(AND(C5&gt;=10,C5&lt;=14),2,IF(AND(C5&gt;=15,C5&lt;19),3,5))))</f>
         <v>5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="16">
         <f>(C5-E5)*D5</f>
         <v>58800</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="16" t="str">
         <f t="shared" ref="B6:B8" si="0">VLOOKUP(A6,$A$12:$C$15,2,0)</f>
         <v>Nước</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>5</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <f t="shared" ref="D6:D8" si="1">VLOOKUP(A6,$A$12:$C$15,3,0)</f>
         <v>4350</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <f>LOOKUP(C6,{0,5,10,15,19},{0,1,2,3,5})</f>
         <v>1</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <f t="shared" ref="F6:F8" si="2">IF(AND(C6&gt;=1,C6&lt;=4),0,IF(AND(C6&gt;=5,C6&lt;=9),1,IF(AND(C6&gt;=10,C6&lt;=14),2,IF(AND(C6&gt;=15,C6&lt;19),3,5))))</f>
         <v>1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="16">
         <f t="shared" ref="G6:G8" si="3">(C6-E6)*D6</f>
         <v>17400</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thực phẩm</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>16</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <f>LOOKUP(C7,{0,5,10,15,19},{0,1,2,3,5})</f>
         <v>3</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <f t="shared" si="3"/>
         <v>26000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Súp Knor</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>1</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="16">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <f>LOOKUP(C8,{0,5,10,15,19},{0,1,2,3,5})</f>
         <v>0</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="16">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="34">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="25">
         <f>SUM(G5:G8)</f>
         <v>103200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>4200</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>4350</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>1000</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="22">
         <v>2000</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1929,329 +3758,329 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70BAD05-7D6D-46F8-B771-C11D5C3013B2}">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="39"/>
-    <col min="3" max="3" width="11" style="39" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="39"/>
-    <col min="6" max="6" width="12" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="39" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="11.44140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="28"/>
+    <col min="3" max="3" width="11" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="28"/>
+    <col min="6" max="6" width="12" style="28" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="41" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="29">
         <v>21700</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="48">
-        <f>VLOOKUP(B6,$A$16:$C$19,2,0)</f>
+      <c r="C6" s="35">
+        <f t="shared" ref="C6:C12" si="0">VLOOKUP(B6,$A$16:$C$19,2,0)</f>
         <v>600</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="31">
         <v>350</v>
       </c>
-      <c r="E6" s="48">
-        <f>VLOOKUP(B6,$A$16:$C$19,3,0)</f>
+      <c r="E6" s="35">
+        <f t="shared" ref="E6:E12" si="1">VLOOKUP(B6,$A$16:$C$19,3,0)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="48">
-        <f>IF(D6&gt;C6,(D6-C6)*20%*E6,0)</f>
+      <c r="F6" s="35">
+        <f t="shared" ref="F6:F12" si="2">IF(D6&gt;C6,(D6-C6)*20%*E6,0)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="48">
-        <f>(E6+F6)*$E$4</f>
+      <c r="G6" s="35">
+        <f t="shared" ref="G6:G12" si="3">(E6+F6)*$E$4</f>
         <v>21700</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="48">
-        <f>VLOOKUP(B7,$A$16:$C$19,2,0)</f>
+      <c r="C7" s="35">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="31">
         <v>70</v>
       </c>
-      <c r="E7" s="48">
-        <f>VLOOKUP(B7,$A$16:$C$19,3,0)</f>
+      <c r="E7" s="35">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F7" s="48">
-        <f>IF(D7&gt;C7,(D7-C7)*20%*E7,0)</f>
+      <c r="F7" s="35">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="48">
-        <f>(E7+F7)*$E$4</f>
+      <c r="G7" s="35">
+        <f t="shared" si="3"/>
         <v>21700</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="48">
-        <f>VLOOKUP(B8,$A$16:$C$19,2,0)</f>
+      <c r="C8" s="35">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="31">
         <v>500</v>
       </c>
-      <c r="E8" s="48">
-        <f>VLOOKUP(B8,$A$16:$C$19,3,0)</f>
+      <c r="E8" s="35">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F8" s="48">
-        <f>IF(D8&gt;C8,(D8-C8)*20%*E8,0)</f>
+      <c r="F8" s="35">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="G8" s="48">
-        <f>(E8+F8)*$E$4</f>
+      <c r="G8" s="35">
+        <f t="shared" si="3"/>
         <v>3971100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="48">
-        <f>VLOOKUP(B9,$A$16:$C$19,2,0)</f>
+      <c r="C9" s="35">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="31">
         <v>1000</v>
       </c>
-      <c r="E9" s="48">
-        <f>VLOOKUP(B9,$A$16:$C$19,3,0)</f>
+      <c r="E9" s="35">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F9" s="48">
-        <f>IF(D9&gt;C9,(D9-C9)*20%*E9,0)</f>
+      <c r="F9" s="35">
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="G9" s="48">
-        <f>(E9+F9)*$E$4</f>
+      <c r="G9" s="35">
+        <f t="shared" si="3"/>
         <v>5251400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="48">
-        <f>VLOOKUP(B10,$A$16:$C$19,2,0)</f>
+      <c r="C10" s="35">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="31">
         <v>800</v>
       </c>
-      <c r="E10" s="48">
-        <f>VLOOKUP(B10,$A$16:$C$19,3,0)</f>
+      <c r="E10" s="35">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10" s="48">
-        <f>IF(D10&gt;C10,(D10-C10)*20%*E10,0)</f>
+      <c r="F10" s="35">
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="G10" s="48">
-        <f>(E10+F10)*$E$4</f>
+      <c r="G10" s="35">
+        <f t="shared" si="3"/>
         <v>7877100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="48">
-        <f>VLOOKUP(B11,$A$16:$C$19,2,0)</f>
+      <c r="C11" s="35">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="31">
         <v>1580</v>
       </c>
-      <c r="E11" s="48">
-        <f>VLOOKUP(B11,$A$16:$C$19,3,0)</f>
+      <c r="E11" s="35">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F11" s="48">
-        <f>IF(D11&gt;C11,(D11-C11)*20%*E11,0)</f>
+      <c r="F11" s="35">
+        <f t="shared" si="2"/>
         <v>472</v>
       </c>
-      <c r="G11" s="48">
-        <f>(E11+F11)*$E$4</f>
+      <c r="G11" s="35">
+        <f t="shared" si="3"/>
         <v>10285800</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="48">
-        <f>VLOOKUP(B12,$A$16:$C$19,2,0)</f>
+      <c r="C12" s="35">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="31">
         <v>1900</v>
       </c>
-      <c r="E12" s="48">
-        <f>VLOOKUP(B12,$A$16:$C$19,3,0)</f>
+      <c r="E12" s="35">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F12" s="48">
-        <f>IF(D12&gt;C12,(D12-C12)*20%*E12,0)</f>
+      <c r="F12" s="35">
+        <f t="shared" si="2"/>
         <v>1020</v>
       </c>
-      <c r="G12" s="48">
-        <f>(E12+F12)*$E$4</f>
+      <c r="G12" s="35">
+        <f t="shared" si="3"/>
         <v>22199100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-    </row>
-    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+    </row>
+    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="31">
         <v>200</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="31">
         <v>400</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="31">
         <v>600</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="31">
         <v>800</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="34">
         <v>0.5</v>
       </c>
     </row>
@@ -2270,308 +4099,290 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9337FBF-C360-47C2-ABCE-069E0CBABD69}">
-  <dimension ref="A3:J15"/>
+  <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J8"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="8.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="4" customWidth="1"/>
+    <col min="5" max="7" width="9.109375" style="4"/>
+    <col min="8" max="8" width="8.109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-    </row>
-    <row r="4" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="36">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="55" t="str">
+      <c r="D5" s="39" t="str">
         <f>HLOOKUP(LEFT(C5,1),$C$10:$E$11,2,0)</f>
         <v>Tin học</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="34">
         <v>7</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="34">
         <v>3</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="40">
         <f>E5*2+F5</f>
         <v>17</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="40">
         <f>VLOOKUP(VALUE(RIGHT(C5,1)),$G$11:$H$14,2,0)</f>
         <v>2</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="40">
         <f>H5+G5</f>
         <v>19</v>
       </c>
-      <c r="J5" s="55" t="str">
+      <c r="J5" s="39" t="str">
         <f>IF(I5&gt;18,"Đậu","Rớt")</f>
         <v>Đậu</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="55" t="str">
+      <c r="D6" s="39" t="str">
         <f t="shared" ref="D6:D8" si="0">HLOOKUP(LEFT(C6,1),$C$10:$E$11,2,0)</f>
         <v>Lý</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="34">
         <v>4</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="34">
         <v>7</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="40">
         <f t="shared" ref="G6:G8" si="1">E6*2+F6</f>
         <v>15</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="40">
         <f t="shared" ref="H6:H8" si="2">VLOOKUP(VALUE(RIGHT(C6,1)),$G$11:$H$14,2,0)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="40">
         <f t="shared" ref="I6:I8" si="3">H6+G6</f>
         <v>16</v>
       </c>
-      <c r="J6" s="55" t="str">
+      <c r="J6" s="39" t="str">
         <f t="shared" ref="J6:J8" si="4">IF(I6&gt;18,"Đậu","Rớt")</f>
         <v>Rớt</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="36">
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="55" t="str">
+      <c r="D7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Hóa</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="34">
         <v>7</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="34">
         <v>6</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="40">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="40">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="40">
         <f t="shared" si="3"/>
         <v>21.5</v>
       </c>
-      <c r="J7" s="55" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" si="4"/>
         <v>Đậu</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
         <v>4</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="55" t="str">
+      <c r="D8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Hóa</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="34">
         <v>6</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="34">
         <v>6.5</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="40">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="40">
         <f t="shared" si="3"/>
         <v>18.5</v>
       </c>
-      <c r="J8" s="55" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="4"/>
         <v>Đậu</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="51" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="37">
+      <c r="G11" s="26">
         <v>1</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="26">
         <v>2</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="37">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="26">
         <v>2</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="26">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="52">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="37">
         <v>3</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="37">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="26">
         <v>4</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2588,419 +4399,419 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF274422-4E77-464C-947C-E071C9F93ACA}">
   <dimension ref="A4:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="39" t="str">
         <f>VLOOKUP(LEFT(A6,2),$A$19:$D$23,2,0)</f>
         <v>Đĩa cứng</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="40">
         <f>VLOOKUP(LEFT(A6,2),$A$19:$D$23,RIGHT(A6,1)+2,0)</f>
         <v>49</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="26">
         <v>60</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="40">
         <f>IF(RIGHT(A6,1)="1",1%,5%)*C6</f>
         <v>0.49</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="35">
         <f>D6*(C6+E6)</f>
         <v>2969.4</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="35">
         <f>F6-(IF(F6&gt;=1000,1%*F6,0))</f>
         <v>2939.7060000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="39" t="str">
         <f t="shared" ref="B7:B13" si="0">VLOOKUP(LEFT(A7,2),$A$19:$D$23,2,0)</f>
         <v>Đĩa mềm</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="40">
         <f t="shared" ref="C7:C13" si="1">VLOOKUP(LEFT(A7,2),$A$19:$D$23,RIGHT(A7,1)+2,0)</f>
         <v>2.5</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="26">
         <v>70</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="40">
         <f t="shared" ref="E7:E13" si="2">IF(RIGHT(A7,1)="1",1%,5%)*C7</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="35">
         <f t="shared" ref="F7:F13" si="3">D7*(C7+E7)</f>
         <v>176.75</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="35">
         <f t="shared" ref="G7:G13" si="4">F7-(IF(F7&gt;=1000,1%*F7,0))</f>
         <v>176.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Mouse</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="26">
         <v>30</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="40">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="35">
         <f t="shared" si="3"/>
         <v>90.899999999999991</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="35">
         <f t="shared" si="4"/>
         <v>90.899999999999991</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>SD Ram</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="40">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="26">
         <v>120</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="40">
         <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="35">
         <f t="shared" si="3"/>
         <v>1575.6000000000001</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="35">
         <f t="shared" si="4"/>
         <v>1559.8440000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>DD Ram</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="40">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="26">
         <v>100</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="40">
         <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="35">
         <f t="shared" si="3"/>
         <v>2727</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="35">
         <f t="shared" si="4"/>
         <v>2699.73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Đĩa cứng</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="40">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="26">
         <v>50</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="40">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="35">
         <f t="shared" si="3"/>
         <v>2625</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="35">
         <f t="shared" si="4"/>
         <v>2598.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Mouse</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="40">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="26">
         <v>65</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="40">
         <f t="shared" si="2"/>
         <v>0.17500000000000002</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="35">
         <f t="shared" si="3"/>
         <v>238.875</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="35">
         <f t="shared" si="4"/>
         <v>238.875</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>DD Ram</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="40">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="26">
         <v>20</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="40">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="35">
         <f t="shared" si="3"/>
         <v>630</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="35">
         <f t="shared" si="4"/>
         <v>630</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="F17" s="60" t="s">
+      <c r="D17" s="44"/>
+      <c r="F17" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="61"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="25">
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="21">
         <v>1</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="21">
         <v>2</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="61"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="26">
         <v>49</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="26">
         <v>50</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="40">
         <f>SUMIF(A6:$A$13,F19&amp;"*",$D$6:$D$13)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="26">
         <v>2.5</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="26">
         <v>3</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="40">
         <f>SUMIF(A7:$A$13,F20&amp;"*",$D$6:$D$13)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="26">
         <v>3</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="26">
         <v>3.5</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="40">
         <f>SUMIF(A8:$A$13,F21&amp;"*",$D$6:$D$13)</f>
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="26">
         <v>13</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="26">
         <v>15</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="40">
         <f>SUMIF(A9:$A$13,F22&amp;"*",$D$6:$D$13)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="26">
         <v>27</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="26">
         <v>30</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="40">
         <f>SUMIF(A10:$A$13,F23&amp;"*",$D$6:$D$13)</f>
         <v>180</v>
       </c>
@@ -3018,4 +4829,1814 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D53DA8-E9D2-4671-8675-41F6EDB2B882}">
+  <dimension ref="A2:J12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="64"/>
+    <col min="2" max="2" width="11.21875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="11" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="64" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="64" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="66" t="str">
+        <f>IF(RIGHT(A5,2)="DK","Đa Kao",IF(RIGHT(A5,2)="BT","Bến Thành","Bà Chiểu"))</f>
+        <v>Đa Kao</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="66" t="str">
+        <f>VLOOKUP(C5,$B$10:$D$12,2,0)</f>
+        <v>Vải Kate</v>
+      </c>
+      <c r="E5" s="72">
+        <v>10000000</v>
+      </c>
+      <c r="F5" s="66">
+        <f>E5*10%</f>
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="75">
+        <f>IF(H5-G5&gt;3,(H5-G5)*2%*F5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="66">
+        <f>F5+I5</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="66" t="str">
+        <f t="shared" ref="B6:B7" si="0">IF(RIGHT(A6,2)="DK","Đa Kao",IF(RIGHT(A6,2)="BT","Bến Thành","Bà Chiểu"))</f>
+        <v>Bến Thành</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="66" t="str">
+        <f t="shared" ref="D6:D7" si="1">VLOOKUP(C6,$B$10:$D$12,2,0)</f>
+        <v>Quần áo</v>
+      </c>
+      <c r="E6" s="72">
+        <v>2000000</v>
+      </c>
+      <c r="F6" s="66">
+        <f t="shared" ref="F6:F7" si="2">E6*10%</f>
+        <v>200000</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="75">
+        <f t="shared" ref="I6:I7" si="3">IF(H6-G6&gt;3,(H6-G6)*2%*F6,0)</f>
+        <v>16000</v>
+      </c>
+      <c r="J6" s="66">
+        <f t="shared" ref="J6:J7" si="4">F6+I6</f>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>Bà Chiểu</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực phẩm</v>
+      </c>
+      <c r="E7" s="72">
+        <v>5000000</v>
+      </c>
+      <c r="F7" s="66">
+        <f t="shared" si="2"/>
+        <v>500000</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="66">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
+      <c r="B8" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="72">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51887186-82D0-4A62-99E0-A73D928240A6}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="125">
+        <v>38346</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="60" t="str">
+        <f>VLOOKUP(LEFT(B6,3),$D$19:$F$22,2,0)</f>
+        <v>Tivi Samsung</v>
+      </c>
+      <c r="D6" s="60" t="str">
+        <f>IF(RIGHT(B6,1)="N","Nhập","Xuất")</f>
+        <v>Nhập</v>
+      </c>
+      <c r="E6" s="60" t="str">
+        <f>IF(D6="Xuất",VLOOKUP(MID(B6,4,2),$A$19:$B$22,2,0),HLOOKUP(MID(B6,4,2),$B$14:$E$15,2,0))</f>
+        <v>Công Ty PTE</v>
+      </c>
+      <c r="F6" s="60">
+        <v>65</v>
+      </c>
+      <c r="G6" s="132">
+        <f>IF(D6="Xuất",102%*VLOOKUP(LEFT(B6,3),$D$19:$F$22,3,0),VLOOKUP(LEFT(B6,3),$D$19:$F$22,3,0))</f>
+        <v>3500000</v>
+      </c>
+      <c r="H6" s="132">
+        <f>F6*G6</f>
+        <v>227500000</v>
+      </c>
+      <c r="I6" s="132">
+        <f>IF(AND(F6&gt;200,D6="Xuất"),H6*10%,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="125">
+        <v>38317</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="60" t="str">
+        <f>VLOOKUP(LEFT(B7,3),$D$19:$F$22,2,0)</f>
+        <v>Máy giặt Sanyo</v>
+      </c>
+      <c r="D7" s="60" t="str">
+        <f>IF(RIGHT(B7,1)="N","Nhập","Xuất")</f>
+        <v>Xuất</v>
+      </c>
+      <c r="E7" s="60" t="str">
+        <f>IF(D7="Xuất",VLOOKUP(MID(B7,4,2),$A$19:$B$22,2,0),HLOOKUP(MID(B7,4,2),$B$14:$E$15,2,0))</f>
+        <v>Sách hướng dẫn</v>
+      </c>
+      <c r="F7" s="60">
+        <v>50</v>
+      </c>
+      <c r="G7" s="132">
+        <f>IF(D7="Xuất",102%*VLOOKUP(LEFT(B7,3),$D$19:$F$22,3,0),VLOOKUP(LEFT(B7,3),$D$19:$F$22,3,0))</f>
+        <v>3060000</v>
+      </c>
+      <c r="H7" s="132">
+        <f>F7*G7</f>
+        <v>153000000</v>
+      </c>
+      <c r="I7" s="132">
+        <f>IF(AND(F7&gt;200,D7="Xuất"),H7*10%,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="125">
+        <v>38377</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="60" t="str">
+        <f>VLOOKUP(LEFT(B8,3),$D$19:$F$22,2,0)</f>
+        <v>Máy giặt Sanyo</v>
+      </c>
+      <c r="D8" s="60" t="str">
+        <f>IF(RIGHT(B8,1)="N","Nhập","Xuất")</f>
+        <v>Nhập</v>
+      </c>
+      <c r="E8" s="60" t="str">
+        <f>IF(D8="Xuất",VLOOKUP(MID(B8,4,2),$A$19:$B$22,2,0),HLOOKUP(MID(B8,4,2),$B$14:$E$15,2,0))</f>
+        <v>HTX Hạnh Nguyên</v>
+      </c>
+      <c r="F8" s="60">
+        <v>30</v>
+      </c>
+      <c r="G8" s="132">
+        <f>IF(D8="Xuất",102%*VLOOKUP(LEFT(B8,3),$D$19:$F$22,3,0),VLOOKUP(LEFT(B8,3),$D$19:$F$22,3,0))</f>
+        <v>3000000</v>
+      </c>
+      <c r="H8" s="132">
+        <f>F8*G8</f>
+        <v>90000000</v>
+      </c>
+      <c r="I8" s="132">
+        <f>IF(AND(F8&gt;200,D8="Xuất"),H8*10%,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="125">
+        <v>111474</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="60" t="str">
+        <f>VLOOKUP(LEFT(B9,3),$D$19:$F$22,2,0)</f>
+        <v>Sáo cửa sổ</v>
+      </c>
+      <c r="D9" s="60" t="str">
+        <f>IF(RIGHT(B9,1)="N","Nhập","Xuất")</f>
+        <v>Xuất</v>
+      </c>
+      <c r="E9" s="60" t="str">
+        <f>IF(D9="Xuất",VLOOKUP(MID(B9,4,2),$A$19:$B$22,2,0),HLOOKUP(MID(B9,4,2),$B$14:$E$15,2,0))</f>
+        <v>Sách hướng dẫn</v>
+      </c>
+      <c r="F9" s="60">
+        <v>300</v>
+      </c>
+      <c r="G9" s="132">
+        <f>IF(D9="Xuất",102%*VLOOKUP(LEFT(B9,3),$D$19:$F$22,3,0),VLOOKUP(LEFT(B9,3),$D$19:$F$22,3,0))</f>
+        <v>153000</v>
+      </c>
+      <c r="H9" s="132">
+        <f>F9*G9</f>
+        <v>45900000</v>
+      </c>
+      <c r="I9" s="132">
+        <f>IF(AND(F9&gt;200,D9="Xuất"),H9*10%,0)</f>
+        <v>4590000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="125">
+        <v>38381</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="60" t="str">
+        <f>VLOOKUP(LEFT(B10,3),$D$19:$F$22,2,0)</f>
+        <v>Compact Disk</v>
+      </c>
+      <c r="D10" s="60" t="str">
+        <f>IF(RIGHT(B10,1)="N","Nhập","Xuất")</f>
+        <v>Xuất</v>
+      </c>
+      <c r="E10" s="60" t="str">
+        <f>IF(D10="Xuất",VLOOKUP(MID(B10,4,2),$A$19:$B$22,2,0),HLOOKUP(MID(B10,4,2),$B$14:$E$15,2,0))</f>
+        <v>Sách kỹ thuật</v>
+      </c>
+      <c r="F10" s="60">
+        <v>500</v>
+      </c>
+      <c r="G10" s="132">
+        <f>IF(D10="Xuất",102%*VLOOKUP(LEFT(B10,3),$D$19:$F$22,3,0),VLOOKUP(LEFT(B10,3),$D$19:$F$22,3,0))</f>
+        <v>25500</v>
+      </c>
+      <c r="H10" s="132">
+        <f>F10*G10</f>
+        <v>12750000</v>
+      </c>
+      <c r="I10" s="132">
+        <f>IF(AND(F10&gt;200,D10="Xuất"),H10*10%,0)</f>
+        <v>1275000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="125">
+        <v>38280</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="60" t="str">
+        <f>VLOOKUP(LEFT(B11,3),$D$19:$F$22,2,0)</f>
+        <v>Compact Disk</v>
+      </c>
+      <c r="D11" s="60" t="str">
+        <f>IF(RIGHT(B11,1)="N","Nhập","Xuất")</f>
+        <v>Xuất</v>
+      </c>
+      <c r="E11" s="60" t="str">
+        <f>IF(D11="Xuất",VLOOKUP(MID(B11,4,2),$A$19:$B$22,2,0),HLOOKUP(MID(B11,4,2),$B$14:$E$15,2,0))</f>
+        <v>Sách giáo khoa</v>
+      </c>
+      <c r="F11" s="60">
+        <v>100</v>
+      </c>
+      <c r="G11" s="132">
+        <f>IF(D11="Xuất",102%*VLOOKUP(LEFT(B11,3),$D$19:$F$22,3,0),VLOOKUP(LEFT(B11,3),$D$19:$F$22,3,0))</f>
+        <v>25500</v>
+      </c>
+      <c r="H11" s="132">
+        <f>F11*G11</f>
+        <v>2550000</v>
+      </c>
+      <c r="I11" s="132">
+        <f>IF(AND(F11&gt;200,D11="Xuất"),H11*10%,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="127" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="129" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="130" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="131" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="D17" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="123" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="123" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="123" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="60">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="60">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="60">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="60">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="123" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="125">
+        <v>111474</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="60">
+        <v>300</v>
+      </c>
+      <c r="G26" s="132">
+        <v>153000</v>
+      </c>
+      <c r="H26" s="132">
+        <v>45900000</v>
+      </c>
+      <c r="I26" s="132">
+        <v>4590000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="125">
+        <v>38381</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="60">
+        <v>500</v>
+      </c>
+      <c r="G27" s="132">
+        <v>25500</v>
+      </c>
+      <c r="H27" s="132">
+        <v>12750000</v>
+      </c>
+      <c r="I27" s="132">
+        <v>1275000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="123" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="125">
+        <v>111474</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="60">
+        <v>300</v>
+      </c>
+      <c r="G30" s="132">
+        <v>153000</v>
+      </c>
+      <c r="H30" s="132">
+        <v>45900000</v>
+      </c>
+      <c r="I30" s="132">
+        <v>4590000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="125">
+        <v>38381</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="60">
+        <v>500</v>
+      </c>
+      <c r="G31" s="132">
+        <v>25500</v>
+      </c>
+      <c r="H31" s="132">
+        <v>12750000</v>
+      </c>
+      <c r="I31" s="132">
+        <v>1275000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="125">
+        <v>38280</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="60">
+        <v>100</v>
+      </c>
+      <c r="G32" s="132">
+        <v>25500</v>
+      </c>
+      <c r="H32" s="132">
+        <v>2550000</v>
+      </c>
+      <c r="I32" s="132">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:I11" xr:uid="{51887186-82D0-4A62-99E0-A73D928240A6}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="100"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I11">
+    <sortCondition descending="1" ref="H6:H11"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:F17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{82970DA2-4393-4794-BF53-9EBA5EA8247D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1113290-99C5-4A2A-BAD4-2CA10DE34407}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="17" style="62"/>
+    <col min="5" max="5" width="17.88671875" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="17" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="102">
+        <v>39003</v>
+      </c>
+      <c r="B6" s="114">
+        <v>0.54230324074074077</v>
+      </c>
+      <c r="C6" s="114">
+        <v>0.54370370370370369</v>
+      </c>
+      <c r="D6" s="86">
+        <f xml:space="preserve"> HOUR(C6-B6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="118">
+        <f>HOUR(C6-B6)*60+MINUTE(C6-B6)+SECOND(C6-B6)/60</f>
+        <v>2.0166666666666666</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="86">
+        <f>VLOOKUP(F6,$A$13:$B$16,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="H6" s="87">
+        <f>E6*G6</f>
+        <v>2016.6666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="102">
+        <v>39007</v>
+      </c>
+      <c r="B7" s="114">
+        <v>0.84571759259259249</v>
+      </c>
+      <c r="C7" s="114">
+        <v>0.84653935185185192</v>
+      </c>
+      <c r="D7" s="86">
+        <f t="shared" ref="D7:D9" si="0" xml:space="preserve"> HOUR(C7-B7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="118">
+        <f t="shared" ref="E7:E9" si="1">HOUR(C7-B7)*60+MINUTE(C7-B7)+SECOND(C7-B7)/60</f>
+        <v>1.1833333333333333</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="86">
+        <f t="shared" ref="G7:G9" si="2">VLOOKUP(F7,$A$13:$B$16,2,0)</f>
+        <v>1100</v>
+      </c>
+      <c r="H7" s="87">
+        <f t="shared" ref="H7:H9" si="3">E7*G7</f>
+        <v>1301.6666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="103">
+        <v>39008</v>
+      </c>
+      <c r="B8" s="115">
+        <v>0.3439814814814815</v>
+      </c>
+      <c r="C8" s="115">
+        <v>0.35289351851851852</v>
+      </c>
+      <c r="D8" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="118">
+        <f t="shared" si="1"/>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="86">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="H8" s="87">
+        <f t="shared" si="3"/>
+        <v>12833.333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="104">
+        <v>39009</v>
+      </c>
+      <c r="B9" s="116">
+        <v>0.59603009259259265</v>
+      </c>
+      <c r="C9" s="116">
+        <v>0.59752314814814811</v>
+      </c>
+      <c r="D9" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="118">
+        <f t="shared" si="1"/>
+        <v>2.15</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="86">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="H9" s="87">
+        <f t="shared" si="3"/>
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="109"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="107"/>
+      <c r="D12" s="112" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="113"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="92">
+        <v>1100</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="94">
+        <f>COUNTIF($F$6:$F$9,D13&amp;"*")</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="85">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="94">
+        <f t="shared" ref="E14:E16" si="4">COUNTIF($F$6:$F$9,D14&amp;"*")</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="85">
+        <v>1100</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="94">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="85">
+        <v>3250</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D648A87C-A584-4EE0-BF69-E708ACCF9194}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="133" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="133" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="125">
+        <v>41774</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="60" t="str">
+        <f>VLOOKUP(B6,$B$15:$D$17,2,0)</f>
+        <v>Trần An</v>
+      </c>
+      <c r="D6" s="60">
+        <f>VLOOKUP(B6,$B$15:$D$17,3,0)</f>
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="60" t="str">
+        <f>VLOOKUP(LEFT(E6,2),$F$15:$H$17,2,0)</f>
+        <v>Vòng tay</v>
+      </c>
+      <c r="G6" s="60">
+        <f>VALUE(RIGHT(E6,LEN(E6)-3))</f>
+        <v>150</v>
+      </c>
+      <c r="H6" s="60">
+        <f>VLOOKUP(LEFT(E6,2),$F$15:$H$17,3,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="I6" s="60">
+        <f>G6*H6*D6</f>
+        <v>360000</v>
+      </c>
+      <c r="J6" s="60">
+        <f>IF(AND(TRUE,G6&gt;=150),50000,0)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="125">
+        <v>41774</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="60" t="str">
+        <f t="shared" ref="C7:C11" si="0">VLOOKUP(B7,$B$15:$D$17,2,0)</f>
+        <v>Nguyễn Minh</v>
+      </c>
+      <c r="D7" s="60">
+        <f t="shared" ref="D7:D11" si="1">VLOOKUP(B7,$B$15:$D$17,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="60" t="str">
+        <f t="shared" ref="F7:F11" si="2">VLOOKUP(LEFT(E7,2),$F$15:$H$17,2,0)</f>
+        <v>Đồng hồ</v>
+      </c>
+      <c r="G7" s="60">
+        <f t="shared" ref="G7:G11" si="3">VALUE(RIGHT(E7,LEN(E7)-3))</f>
+        <v>75</v>
+      </c>
+      <c r="H7" s="60">
+        <f t="shared" ref="H7:H11" si="4">VLOOKUP(LEFT(E7,2),$F$15:$H$17,3,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="I7" s="60">
+        <f t="shared" ref="I7:I11" si="5">G7*H7*D7</f>
+        <v>525000</v>
+      </c>
+      <c r="J7" s="60">
+        <f t="shared" ref="J7:J11" si="6">IF(AND(TRUE,G7&gt;=150),50000,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="125">
+        <v>41774</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>Trần An</v>
+      </c>
+      <c r="D8" s="60">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v>Vòng tay</v>
+      </c>
+      <c r="G8" s="60">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="H8" s="60">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="I8" s="60">
+        <f t="shared" si="5"/>
+        <v>288000</v>
+      </c>
+      <c r="J8" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="125">
+        <v>41775</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>Hoàng Thị Yến</v>
+      </c>
+      <c r="D9" s="60">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v>Vòng cổ</v>
+      </c>
+      <c r="G9" s="60">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="H9" s="60">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I9" s="60">
+        <f t="shared" si="5"/>
+        <v>468000</v>
+      </c>
+      <c r="J9" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="125">
+        <v>41775</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Minh</v>
+      </c>
+      <c r="D10" s="60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v>Đồng hồ</v>
+      </c>
+      <c r="G10" s="60">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H10" s="60">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+      <c r="I10" s="60">
+        <f t="shared" si="5"/>
+        <v>350000</v>
+      </c>
+      <c r="J10" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="125">
+        <v>41776</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Minh</v>
+      </c>
+      <c r="D11" s="60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v>Vòng tay</v>
+      </c>
+      <c r="G11" s="60">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="H11" s="60">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="I11" s="60">
+        <f t="shared" si="5"/>
+        <v>400000</v>
+      </c>
+      <c r="J11" s="60">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="135"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="126" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="F13" s="126" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="133" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="133" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="133" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="60">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="60">
+        <v>1.2</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="60">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="60">
+        <v>1</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="60">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+    </row>
+    <row r="20" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E20" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="133" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="133" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="60">
+        <f>I22</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="60">
+        <f>SUMIFS($I$6:$I$11,$C$6:$C$11,E21,$F$6:$F$11,F21)</f>
+        <v>648000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="60">
+        <f>SUMIFS($G$6:$G$11,$C$6:$C$11,E22,$F$6:$F$11,F22)</f>
+        <v>125</v>
+      </c>
+      <c r="H22" s="60">
+        <f>SUMIFS($I$6:$I$11,$C$6:$C$11,E22,$F$6:$F$11,F22)</f>
+        <v>875000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{4AB135D3-DA16-4D14-A5D3-EE34A754BE09}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>